--- a/Selenium/Bugs/data/style/공연_라이브.xlsx
+++ b/Selenium/Bugs/data/style/공연_라이브.xlsx
@@ -706,7 +706,7 @@
     <t>ME! (Live From Paris)</t>
   </si>
   <si>
-    <t>Yellow (Live 2017)</t>
+    <t xml:space="preserve">Yellow (Live 2017) </t>
   </si>
   <si>
     <t>Happy (Live)</t>
@@ -829,7 +829,7 @@
     <t>I'll Be Back</t>
   </si>
   <si>
-    <t>[19금]</t>
+    <t>Hands Up (Clean ver.)</t>
   </si>
   <si>
     <t>이 노래를 듣고 돌아와</t>
